--- a/biology/Botanique/Humiria/Humiria.xlsx
+++ b/biology/Botanique/Humiria/Humiria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Humiria est un genre de plantes à fleurs de la famille des Humiriaceae, comprenant 4 à 20 espèces d'arbres sud-américains.
-Le nom Humiria provient du nom vernaculaire Garipon de l'espèce type Humiria balsamifera Aubl. : HOUMIRI[3].
+Le nom Humiria provient du nom vernaculaire Garipon de l'espèce type Humiria balsamifera Aubl. : HOUMIRI.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « HOUMIRI. (Tabula 225.)
 CAL. Perianthium monophyllum, quinquedentatum ; denticulis acutis. 
 COR. Petala quinque, oblonga, acuta, alba, receptaculo piſtilli inſerta. 
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (9 mars 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (9 mars 2022) :
 Humiria balsamifera (Aubl.) A.St.-Hil.
 Humiria balsamifera Aubl.
 Humiria crassifolia Mart.
@@ -560,12 +576,12 @@
 Humiria dichotoma Urb.
 Humiria fruticosa Cuatrec.
 Humiria wurdackii Cuatrec.
-Selon World Flora Online (WFO)       (9 mars 2022)[5] :
+Selon World Flora Online (WFO)       (9 mars 2022) :
 Humiria balsamifera Aubl.
 Humiria crassifolia Mart.
 Humiria fruticosa Cuatrec.
 Humiria wurdackii Cuatrec.
-Selon Tropicos                                           (9 mars 2022)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
 Humiria arenaria Baill., 1874
 Humiria balsamifera Aubl., 1775
 Humiria balsamifera J. St.-Hil., 1805
